--- a/NewProbableCasesOverTimeByCounty/2021-02-01.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-01.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 01/31/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/01/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>New Probable 2021-01-31</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-01</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1273,6 +1276,7 @@
     <col min="91" max="91" width="12.0" customWidth="true"/>
     <col min="92" max="92" width="12.0" customWidth="true"/>
     <col min="93" max="93" width="12.0" customWidth="true"/>
+    <col min="94" max="94" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1565,10 +1569,13 @@
       <c r="CO3" t="s" s="10">
         <v>94</v>
       </c>
+      <c r="CP3" t="s" s="10">
+        <v>95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1845,11 +1852,14 @@
       </c>
       <c r="CO4" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2125,12 +2135,15 @@
         <v>0.0</v>
       </c>
       <c r="CO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2406,12 +2419,15 @@
         <v>0.0</v>
       </c>
       <c r="CO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2688,11 +2704,14 @@
       </c>
       <c r="CO7" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2968,12 +2987,15 @@
         <v>0.0</v>
       </c>
       <c r="CO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3249,12 +3271,15 @@
         <v>0.0</v>
       </c>
       <c r="CO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3530,12 +3555,15 @@
         <v>39.0</v>
       </c>
       <c r="CO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP10" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3811,12 +3839,15 @@
         <v>2.0</v>
       </c>
       <c r="CO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP11" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4092,12 +4123,15 @@
         <v>2.0</v>
       </c>
       <c r="CO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4373,12 +4407,15 @@
         <v>9.0</v>
       </c>
       <c r="CO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4655,11 +4692,14 @@
       </c>
       <c r="CO14" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4935,12 +4975,15 @@
         <v>3.0</v>
       </c>
       <c r="CO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5217,11 +5260,14 @@
       </c>
       <c r="CO16" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5497,12 +5543,15 @@
         <v>0.0</v>
       </c>
       <c r="CO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -5779,11 +5828,14 @@
       </c>
       <c r="CO18" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6060,11 +6112,14 @@
       </c>
       <c r="CO19" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6340,12 +6395,15 @@
         <v>0.0</v>
       </c>
       <c r="CO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6622,11 +6680,14 @@
       </c>
       <c r="CO21" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -6903,11 +6964,14 @@
       </c>
       <c r="CO22" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7184,11 +7248,14 @@
       </c>
       <c r="CO23" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -7464,12 +7531,15 @@
         <v>55.0</v>
       </c>
       <c r="CO24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP24" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -7746,11 +7816,14 @@
       </c>
       <c r="CO25" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8026,12 +8099,15 @@
         <v>1.0</v>
       </c>
       <c r="CO26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -8308,11 +8384,14 @@
       </c>
       <c r="CO27" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -8588,12 +8667,15 @@
         <v>9.0</v>
       </c>
       <c r="CO28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -8870,11 +8952,14 @@
       </c>
       <c r="CO29" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -9151,11 +9236,14 @@
       </c>
       <c r="CO30" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP30" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -9432,11 +9520,14 @@
       </c>
       <c r="CO31" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP31" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -9712,12 +9803,15 @@
         <v>11.0</v>
       </c>
       <c r="CO32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP32" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -9993,12 +10087,15 @@
         <v>0.0</v>
       </c>
       <c r="CO33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP33" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -10274,12 +10371,15 @@
         <v>0.0</v>
       </c>
       <c r="CO34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -10556,11 +10656,14 @@
       </c>
       <c r="CO35" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -10836,12 +10939,15 @@
         <v>0.0</v>
       </c>
       <c r="CO36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -11118,11 +11224,14 @@
       </c>
       <c r="CO37" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CP37" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -11398,12 +11507,15 @@
         <v>1.0</v>
       </c>
       <c r="CO38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP38" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -11679,12 +11791,15 @@
         <v>0.0</v>
       </c>
       <c r="CO39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -11960,12 +12075,15 @@
         <v>3.0</v>
       </c>
       <c r="CO40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -12241,12 +12359,15 @@
         <v>0.0</v>
       </c>
       <c r="CO41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -12522,12 +12643,15 @@
         <v>0.0</v>
       </c>
       <c r="CO42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -12803,12 +12927,15 @@
         <v>3.0</v>
       </c>
       <c r="CO43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -13085,11 +13212,14 @@
       </c>
       <c r="CO44" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP44" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -13365,12 +13495,15 @@
         <v>0.0</v>
       </c>
       <c r="CO45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -13647,11 +13780,14 @@
       </c>
       <c r="CO46" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CP46" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -13927,12 +14063,15 @@
         <v>0.0</v>
       </c>
       <c r="CO47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -14209,11 +14348,14 @@
       </c>
       <c r="CO48" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP48" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -14489,12 +14631,15 @@
         <v>46.0</v>
       </c>
       <c r="CO49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP49" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -14770,12 +14915,15 @@
         <v>0.0</v>
       </c>
       <c r="CO50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -15052,11 +15200,14 @@
       </c>
       <c r="CO51" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP51" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -15332,12 +15483,15 @@
         <v>1.0</v>
       </c>
       <c r="CO52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP52" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -15614,11 +15768,14 @@
       </c>
       <c r="CO53" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP53" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -15894,12 +16051,15 @@
         <v>0.0</v>
       </c>
       <c r="CO54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -16175,12 +16335,15 @@
         <v>1.0</v>
       </c>
       <c r="CO55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -16457,11 +16620,14 @@
       </c>
       <c r="CO56" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CP56" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -16737,12 +16903,15 @@
         <v>3.0</v>
       </c>
       <c r="CO57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP57" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -17018,12 +17187,15 @@
         <v>2.0</v>
       </c>
       <c r="CO58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -17299,12 +17471,15 @@
         <v>1.0</v>
       </c>
       <c r="CO59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -17581,11 +17756,14 @@
       </c>
       <c r="CO60" t="n">
         <v>237.0</v>
+      </c>
+      <c r="CP60" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -17861,12 +18039,15 @@
         <v>0.0</v>
       </c>
       <c r="CO61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -18142,12 +18323,15 @@
         <v>6.0</v>
       </c>
       <c r="CO62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP62" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -18424,11 +18608,14 @@
       </c>
       <c r="CO63" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP63" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -18705,11 +18892,14 @@
       </c>
       <c r="CO64" t="n">
         <v>123.0</v>
+      </c>
+      <c r="CP64" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -18985,12 +19175,15 @@
         <v>0.0</v>
       </c>
       <c r="CO65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -19266,12 +19459,15 @@
         <v>1.0</v>
       </c>
       <c r="CO66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP66" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -19547,12 +19743,15 @@
         <v>9.0</v>
       </c>
       <c r="CO67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP67" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -19828,12 +20027,15 @@
         <v>0.0</v>
       </c>
       <c r="CO68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP68" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -20109,12 +20311,15 @@
         <v>0.0</v>
       </c>
       <c r="CO69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP69" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -20390,12 +20595,15 @@
         <v>0.0</v>
       </c>
       <c r="CO70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP70" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -20671,12 +20879,15 @@
         <v>41.0</v>
       </c>
       <c r="CO71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP71" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -20952,12 +21163,15 @@
         <v>2.0</v>
       </c>
       <c r="CO72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -21233,12 +21447,15 @@
         <v>21.0</v>
       </c>
       <c r="CO73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP73" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -21514,12 +21731,15 @@
         <v>0.0</v>
       </c>
       <c r="CO74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -21795,12 +22015,15 @@
         <v>6.0</v>
       </c>
       <c r="CO75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP75" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -22077,11 +22300,14 @@
       </c>
       <c r="CO76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP76" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -22357,12 +22583,15 @@
         <v>2.0</v>
       </c>
       <c r="CO77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP77" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -22639,11 +22868,14 @@
       </c>
       <c r="CO78" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CP78" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -22919,12 +23151,15 @@
         <v>0.0</v>
       </c>
       <c r="CO79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -23200,12 +23435,15 @@
         <v>5.0</v>
       </c>
       <c r="CO80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP80" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -23481,12 +23719,15 @@
         <v>0.0</v>
       </c>
       <c r="CO81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -23762,12 +24003,15 @@
         <v>0.0</v>
       </c>
       <c r="CO82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP82" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -24043,12 +24287,15 @@
         <v>0.0</v>
       </c>
       <c r="CO83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP83" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -24325,11 +24572,14 @@
       </c>
       <c r="CO84" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP84" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -24605,12 +24855,15 @@
         <v>13.0</v>
       </c>
       <c r="CO85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP85" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -24886,12 +25139,15 @@
         <v>0.0</v>
       </c>
       <c r="CO86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -25168,11 +25424,14 @@
       </c>
       <c r="CO87" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CP87" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -25448,12 +25707,15 @@
         <v>8.0</v>
       </c>
       <c r="CO88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -25729,12 +25991,15 @@
         <v>26.0</v>
       </c>
       <c r="CO89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP89" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -26011,11 +26276,14 @@
       </c>
       <c r="CO90" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -26291,12 +26559,15 @@
         <v>0.0</v>
       </c>
       <c r="CO91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -26572,12 +26843,15 @@
         <v>20.0</v>
       </c>
       <c r="CO92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP92" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -26853,12 +27127,15 @@
         <v>3.0</v>
       </c>
       <c r="CO93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP93" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -27134,12 +27411,15 @@
         <v>0.0</v>
       </c>
       <c r="CO94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -27416,11 +27696,14 @@
       </c>
       <c r="CO95" t="n">
         <v>78.0</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -27697,11 +27980,14 @@
       </c>
       <c r="CO96" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP96" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -27977,12 +28263,15 @@
         <v>102.0</v>
       </c>
       <c r="CO97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP97" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -28258,12 +28547,15 @@
         <v>0.0</v>
       </c>
       <c r="CO98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -28539,12 +28831,15 @@
         <v>1.0</v>
       </c>
       <c r="CO99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -28821,11 +29116,14 @@
       </c>
       <c r="CO100" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP100" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -29101,12 +29399,15 @@
         <v>8.0</v>
       </c>
       <c r="CO101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP101" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -29382,12 +29683,15 @@
         <v>0.0</v>
       </c>
       <c r="CO102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -29663,12 +29967,15 @@
         <v>9.0</v>
       </c>
       <c r="CO103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP103" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -29944,12 +30251,15 @@
         <v>0.0</v>
       </c>
       <c r="CO104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -30226,11 +30536,14 @@
       </c>
       <c r="CO105" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CP105" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -30506,12 +30819,15 @@
         <v>1.0</v>
       </c>
       <c r="CO106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP106" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -30787,12 +31103,15 @@
         <v>1.0</v>
       </c>
       <c r="CO107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP107" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -31068,12 +31387,15 @@
         <v>0.0</v>
       </c>
       <c r="CO108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP108" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -31349,12 +31671,15 @@
         <v>0.0</v>
       </c>
       <c r="CO109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -31631,11 +31956,14 @@
       </c>
       <c r="CO110" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -31911,12 +32239,15 @@
         <v>266.0</v>
       </c>
       <c r="CO111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP111" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -32193,11 +32524,14 @@
       </c>
       <c r="CO112" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -32473,12 +32807,15 @@
         <v>2.0</v>
       </c>
       <c r="CO113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP113" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -32754,12 +33091,15 @@
         <v>6.0</v>
       </c>
       <c r="CO114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP114" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -33036,11 +33376,14 @@
       </c>
       <c r="CO115" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -33317,11 +33660,14 @@
       </c>
       <c r="CO116" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -33597,12 +33943,15 @@
         <v>4.0</v>
       </c>
       <c r="CO117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP117" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -33878,12 +34227,15 @@
         <v>0.0</v>
       </c>
       <c r="CO118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -34159,12 +34511,15 @@
         <v>0.0</v>
       </c>
       <c r="CO119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -34440,12 +34795,15 @@
         <v>3.0</v>
       </c>
       <c r="CO120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP120" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -34721,12 +35079,15 @@
         <v>1.0</v>
       </c>
       <c r="CO121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP121" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -35002,12 +35363,15 @@
         <v>1.0</v>
       </c>
       <c r="CO122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -35283,12 +35647,15 @@
         <v>11.0</v>
       </c>
       <c r="CO123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP123" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -35564,12 +35931,15 @@
         <v>7.0</v>
       </c>
       <c r="CO124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP124" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -35845,12 +36215,15 @@
         <v>0.0</v>
       </c>
       <c r="CO125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -36126,12 +36499,15 @@
         <v>0.0</v>
       </c>
       <c r="CO126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -36407,12 +36783,15 @@
         <v>0.0</v>
       </c>
       <c r="CO127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP127" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -36689,11 +37068,14 @@
       </c>
       <c r="CO128" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP128" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -36969,12 +37351,15 @@
         <v>14.0</v>
       </c>
       <c r="CO129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP129" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -37250,12 +37635,15 @@
         <v>0.0</v>
       </c>
       <c r="CO130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP130" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -37531,12 +37919,15 @@
         <v>9.0</v>
       </c>
       <c r="CO131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP131" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -37812,12 +38203,15 @@
         <v>11.0</v>
       </c>
       <c r="CO132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP132" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -38093,12 +38487,15 @@
         <v>14.0</v>
       </c>
       <c r="CO133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP133" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -38375,11 +38772,14 @@
       </c>
       <c r="CO134" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP134" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -38655,12 +39055,15 @@
         <v>0.0</v>
       </c>
       <c r="CO135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -38936,12 +39339,15 @@
         <v>44.0</v>
       </c>
       <c r="CO136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP136" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -39218,11 +39624,14 @@
       </c>
       <c r="CO137" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP137" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -39498,12 +39907,15 @@
         <v>0.0</v>
       </c>
       <c r="CO138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -39779,12 +40191,15 @@
         <v>1.0</v>
       </c>
       <c r="CO139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -40061,11 +40476,14 @@
       </c>
       <c r="CO140" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP140" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -40341,12 +40759,15 @@
         <v>0.0</v>
       </c>
       <c r="CO141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -40622,12 +41043,15 @@
         <v>13.0</v>
       </c>
       <c r="CO142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP142" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -40903,12 +41327,15 @@
         <v>3.0</v>
       </c>
       <c r="CO143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP143" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -41185,11 +41612,14 @@
       </c>
       <c r="CO144" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP144" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -41465,12 +41895,15 @@
         <v>0.0</v>
       </c>
       <c r="CO145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -41746,12 +42179,15 @@
         <v>34.0</v>
       </c>
       <c r="CO146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP146" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -42028,11 +42464,14 @@
       </c>
       <c r="CO147" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CP147" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -42309,11 +42748,14 @@
       </c>
       <c r="CO148" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP148" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -42590,11 +43032,14 @@
       </c>
       <c r="CO149" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CP149" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -42871,11 +43316,14 @@
       </c>
       <c r="CO150" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP150" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -43151,12 +43599,15 @@
         <v>1.0</v>
       </c>
       <c r="CO151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -43432,12 +43883,15 @@
         <v>2.0</v>
       </c>
       <c r="CO152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP152" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -43714,11 +44168,14 @@
       </c>
       <c r="CO153" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP153" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -43994,12 +44451,15 @@
         <v>0.0</v>
       </c>
       <c r="CO154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -44275,12 +44735,15 @@
         <v>0.0</v>
       </c>
       <c r="CO155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -44556,12 +45019,15 @@
         <v>0.0</v>
       </c>
       <c r="CO156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -44837,12 +45303,15 @@
         <v>0.0</v>
       </c>
       <c r="CO157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP157" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -45118,12 +45587,15 @@
         <v>0.0</v>
       </c>
       <c r="CO158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -45399,12 +45871,15 @@
         <v>0.0</v>
       </c>
       <c r="CO159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -45681,11 +46156,14 @@
       </c>
       <c r="CO160" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP160" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -45962,11 +46440,14 @@
       </c>
       <c r="CO161" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP161" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -46243,11 +46724,14 @@
       </c>
       <c r="CO162" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP162" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -46523,12 +47007,15 @@
         <v>0.0</v>
       </c>
       <c r="CO163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP163" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -46804,12 +47291,15 @@
         <v>1.0</v>
       </c>
       <c r="CO164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP164" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -47085,12 +47575,15 @@
         <v>0.0</v>
       </c>
       <c r="CO165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -47366,12 +47859,15 @@
         <v>2.0</v>
       </c>
       <c r="CO166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP166" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -47647,12 +48143,15 @@
         <v>-1.0</v>
       </c>
       <c r="CO167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -47928,12 +48427,15 @@
         <v>0.0</v>
       </c>
       <c r="CO168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -48210,11 +48712,14 @@
       </c>
       <c r="CO169" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP169" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -48491,11 +48996,14 @@
       </c>
       <c r="CO170" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP170" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -48771,12 +49279,15 @@
         <v>0.0</v>
       </c>
       <c r="CO171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -49052,12 +49563,15 @@
         <v>1.0</v>
       </c>
       <c r="CO172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP172" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -49333,12 +49847,15 @@
         <v>114.0</v>
       </c>
       <c r="CO173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP173" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -49614,12 +50131,15 @@
         <v>17.0</v>
       </c>
       <c r="CO174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP174" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -49896,11 +50416,14 @@
       </c>
       <c r="CO175" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP175" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -50176,12 +50699,15 @@
         <v>0.0</v>
       </c>
       <c r="CO176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -50458,11 +50984,14 @@
       </c>
       <c r="CO177" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP177" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -50738,12 +51267,15 @@
         <v>47.0</v>
       </c>
       <c r="CO178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP178" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -51019,12 +51551,15 @@
         <v>4.0</v>
       </c>
       <c r="CO179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP179" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -51300,12 +51835,15 @@
         <v>0.0</v>
       </c>
       <c r="CO180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -51582,11 +52120,14 @@
       </c>
       <c r="CO181" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CP181" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -51862,12 +52403,15 @@
         <v>1.0</v>
       </c>
       <c r="CO182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -52143,12 +52687,15 @@
         <v>4.0</v>
       </c>
       <c r="CO183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP183" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -52424,12 +52971,15 @@
         <v>6.0</v>
       </c>
       <c r="CO184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP184" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -52705,12 +53255,15 @@
         <v>8.0</v>
       </c>
       <c r="CO185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP185" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -52987,11 +53540,14 @@
       </c>
       <c r="CO186" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP186" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -53267,12 +53823,15 @@
         <v>18.0</v>
       </c>
       <c r="CO187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP187" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -53548,12 +54107,15 @@
         <v>1.0</v>
       </c>
       <c r="CO188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -53830,11 +54392,14 @@
       </c>
       <c r="CO189" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CP189" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -54110,12 +54675,15 @@
         <v>0.0</v>
       </c>
       <c r="CO190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -54391,12 +54959,15 @@
         <v>0.0</v>
       </c>
       <c r="CO191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -54673,11 +55244,14 @@
       </c>
       <c r="CO192" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP192" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -54954,11 +55528,14 @@
       </c>
       <c r="CO193" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP193" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -55234,12 +55811,15 @@
         <v>0.0</v>
       </c>
       <c r="CO194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -55516,11 +56096,14 @@
       </c>
       <c r="CO195" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP195" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -55796,12 +56379,15 @@
         <v>3.0</v>
       </c>
       <c r="CO196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -56078,11 +56664,14 @@
       </c>
       <c r="CO197" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP197" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -56359,11 +56948,14 @@
       </c>
       <c r="CO198" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP198" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -56639,12 +57231,15 @@
         <v>0.0</v>
       </c>
       <c r="CO199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP199" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -56920,12 +57515,15 @@
         <v>0.0</v>
       </c>
       <c r="CO200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -57202,11 +57800,14 @@
       </c>
       <c r="CO201" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP201" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -57482,12 +58083,15 @@
         <v>14.0</v>
       </c>
       <c r="CO202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP202" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -57763,12 +58367,15 @@
         <v>4.0</v>
       </c>
       <c r="CO203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP203" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -58045,11 +58652,14 @@
       </c>
       <c r="CO204" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP204" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -58325,12 +58935,15 @@
         <v>0.0</v>
       </c>
       <c r="CO205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -58606,12 +59219,15 @@
         <v>0.0</v>
       </c>
       <c r="CO206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -58888,11 +59504,14 @@
       </c>
       <c r="CO207" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP207" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -59168,12 +59787,15 @@
         <v>29.0</v>
       </c>
       <c r="CO208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -59450,11 +60072,14 @@
       </c>
       <c r="CO209" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP209" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -59731,11 +60356,14 @@
       </c>
       <c r="CO210" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP210" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -60011,12 +60639,15 @@
         <v>0.0</v>
       </c>
       <c r="CO211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -60292,12 +60923,15 @@
         <v>0.0</v>
       </c>
       <c r="CO212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -60574,11 +61208,14 @@
       </c>
       <c r="CO213" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CP213" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -60854,12 +61491,15 @@
         <v>3.0</v>
       </c>
       <c r="CO214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -61136,11 +61776,14 @@
       </c>
       <c r="CO215" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CP215" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -61416,12 +62059,15 @@
         <v>1.0</v>
       </c>
       <c r="CO216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP216" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -61698,11 +62344,14 @@
       </c>
       <c r="CO217" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CP217" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -61978,12 +62627,15 @@
         <v>2.0</v>
       </c>
       <c r="CO218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP218" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -62259,12 +62911,15 @@
         <v>0.0</v>
       </c>
       <c r="CO219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -62540,12 +63195,15 @@
         <v>0.0</v>
       </c>
       <c r="CO220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -62821,12 +63479,15 @@
         <v>2.0</v>
       </c>
       <c r="CO221" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP221" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -63102,12 +63763,15 @@
         <v>5.0</v>
       </c>
       <c r="CO222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP222" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -63384,11 +64048,14 @@
       </c>
       <c r="CO223" t="n">
         <v>302.0</v>
+      </c>
+      <c r="CP223" t="n">
+        <v>890.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -63665,11 +64332,14 @@
       </c>
       <c r="CO224" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CP224" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -63945,12 +64615,15 @@
         <v>0.0</v>
       </c>
       <c r="CO225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -64226,12 +64899,15 @@
         <v>0.0</v>
       </c>
       <c r="CO226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -64507,12 +65183,15 @@
         <v>0.0</v>
       </c>
       <c r="CO227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -64789,11 +65468,14 @@
       </c>
       <c r="CO228" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CP228" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -65070,11 +65752,14 @@
       </c>
       <c r="CO229" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CP229" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -65350,12 +66035,15 @@
         <v>0.0</v>
       </c>
       <c r="CO230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -65631,12 +66319,15 @@
         <v>4.0</v>
       </c>
       <c r="CO231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP231" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -65912,12 +66603,15 @@
         <v>3.0</v>
       </c>
       <c r="CO232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP232" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -66194,11 +66888,14 @@
       </c>
       <c r="CO233" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CP233" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -66475,11 +67172,14 @@
       </c>
       <c r="CO234" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CP234" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -66756,11 +67456,14 @@
       </c>
       <c r="CO235" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP235" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -67036,12 +67739,15 @@
         <v>0.0</v>
       </c>
       <c r="CO236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -67318,11 +68024,14 @@
       </c>
       <c r="CO237" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CP237" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -67598,12 +68307,15 @@
         <v>0.0</v>
       </c>
       <c r="CO238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -67880,11 +68592,14 @@
       </c>
       <c r="CO239" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CP239" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -68161,11 +68876,14 @@
       </c>
       <c r="CO240" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CP240" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -68442,11 +69160,14 @@
       </c>
       <c r="CO241" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CP241" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -68723,11 +69444,14 @@
       </c>
       <c r="CO242" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP242" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -69003,12 +69727,15 @@
         <v>0.0</v>
       </c>
       <c r="CO243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -69285,11 +70012,14 @@
       </c>
       <c r="CO244" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CP244" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -69565,12 +70295,15 @@
         <v>0.0</v>
       </c>
       <c r="CO245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -69846,12 +70579,15 @@
         <v>0.0</v>
       </c>
       <c r="CO246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -70127,12 +70863,15 @@
         <v>0.0</v>
       </c>
       <c r="CO247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -70409,11 +71148,14 @@
       </c>
       <c r="CO248" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CP248" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -70689,12 +71431,15 @@
         <v>59.0</v>
       </c>
       <c r="CO249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -70970,12 +71715,15 @@
         <v>14.0</v>
       </c>
       <c r="CO250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP250" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -71251,12 +71999,15 @@
         <v>0.0</v>
       </c>
       <c r="CO251" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP251" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -71532,12 +72283,15 @@
         <v>5.0</v>
       </c>
       <c r="CO252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP252" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -71814,11 +72568,14 @@
       </c>
       <c r="CO253" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CP253" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -72094,12 +72851,15 @@
         <v>0.0</v>
       </c>
       <c r="CO254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -72375,12 +73135,15 @@
         <v>0.0</v>
       </c>
       <c r="CO255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP255" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -72657,11 +73420,14 @@
       </c>
       <c r="CO256" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CP256" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -72937,12 +73703,15 @@
         <v>10.0</v>
       </c>
       <c r="CO257" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP257" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -73036,10 +73805,11 @@
       <c r="CM258"/>
       <c r="CN258"/>
       <c r="CO258"/>
+      <c r="CP258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -73133,6 +73903,7 @@
       <c r="CM259"/>
       <c r="CN259"/>
       <c r="CO259"/>
+      <c r="CP259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
